--- a/biology/Botanique/Welw/Welw..xlsx
+++ b/biology/Botanique/Welw/Welw..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Martin Josef Welwitsch est un botaniste autrichien, né le 25 février 1806 à Maria Saal en Carinthie, province d'Autriche et mort le 20 octobre 1872 à Londres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son titre de docteur en médecine à Vienne en 1836. Il se rend au Portugal en 1853 et obtient la charge du Jardin botanique de Lisbonne. De 1853 à 1860 il voyage en Angola afin d’y enrichir les collections du Jardin botanique et de récolter également des animaux pour les muséums du pays. Il rencontre en 1854 David Livingstone (1813-1873) au cours de l’une de ses expéditions.
 Il s’installe à Londres afin d’y étudier les spécimens d’oiseaux qu’il a rapporté d’Afrique avec les collections britanniques. Outre la description de nombreuses espèces de plantes, on lui doit des études sur les champignons, les mollusques et les insectes. Ses notes ont été largement utilisées par William Philip Hiern (1839-1925) et Alfred Barton Rendle (1865-1938), rédacteurs du Catalogue of the African plants collected by Dr. Friedrich Welwitsch in 1853-1861 publié à Londres de 1896 à 1901.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beiträge zur kryptogamischen Flora Unterösterreichs. In: Beiträge zur Landeskunde Österreichs, Band 4, 1834.
 Synopsis Nostochinearum Austriae inferioris. Dissertation, Wien 1836.
